--- a/biology/Histoire de la zoologie et de la botanique/Gaston_Genevier/Gaston_Genevier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaston_Genevier/Gaston_Genevier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon Gaston Genevier est un botaniste français, né le 18 juin 1830 à Saint-Clément-de-la-Place en Maine-et-Loire et mort le 11 juillet 1880 à Nantes. Son abréviation botanique standard d'auteur est Genev.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de Saint-Clément-de-la-Place près d'Angers, Genevier entre à 15 ans chez M. Moride, pharmacien à Nantes. Bon apprentis, déjà passionné de botanique, il va à Angers poursuivre ses études. Il y devient l'élève assidu et préféré d'Alexandre Boreau, où, l'accompagnant à de nombreuses excursions, il se fait remarquer par son aisance intellectuelle et ses découvertes floristiques. Genevier part ensuite terminer ses études à l'école de pharmacie de Paris, et se fait quelque temps l'élève également dévoué du professeur de botanique Adolphe Chatin.
 En 1855, Genevier s'installe comme pharmacien à Mortagne-sur-Sèvre en Vendée, dans une région dont la flore phanerogamique, sur sous-sol granitique, est relativement monotone. Les contraintes professionnelles l'empêchant de prospecter d'autres régions, Genevier étend alors ses recherches aux champignons, et aux mousses et hépatiques très nombreuses de cette région. Correspondant actif d'Alexandre Boreau, qui révise alors son célèbre ouvrage la Flore du Centre de la France, il s'intéresse également aux groupes taxinomiques difficiles de la flore vasculaire.
